--- a/artfynd/A 2663-2019.xlsx
+++ b/artfynd/A 2663-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,6 +1043,2043 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112307572</v>
+      </c>
+      <c r="B5" t="n">
+        <v>89979</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>683375</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6627671</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112307522</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90812</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>683384</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6627716</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112307592</v>
+      </c>
+      <c r="B7" t="n">
+        <v>103755</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>683347</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6627644</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112307990</v>
+      </c>
+      <c r="B8" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>683334</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6627502</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112307943</v>
+      </c>
+      <c r="B9" t="n">
+        <v>89559</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5442</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Porodaedalea pini</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>683401</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6627535</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112307970</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90792</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>683369</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6627485</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112307555</v>
+      </c>
+      <c r="B11" t="n">
+        <v>89317</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>683437</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6627679</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112307576</v>
+      </c>
+      <c r="B12" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>683375</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6627671</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112307568</v>
+      </c>
+      <c r="B13" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>683342</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6627694</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112307580</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>683344</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6627679</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112307588</v>
+      </c>
+      <c r="B15" t="n">
+        <v>89936</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5420</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Grovticka</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Phaeolus schweinitzii</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Fr.) Pat.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>683341</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6627677</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112307503</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90792</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>683373</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6627724</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112307976</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90812</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>683370</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6627485</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112307952</v>
+      </c>
+      <c r="B18" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>683399</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6627533</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112307534</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>683417</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6627694</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112307579</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>683344</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6627679</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112307542</v>
+      </c>
+      <c r="B21" t="n">
+        <v>94287</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>53</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>683437</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6627679</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112307609</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90808</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2058</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Koppartaggsvamp</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hydnellum lundellii</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>683391</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6627583</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112307600</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90792</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Utanför Stortjärans NR, Upl</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>683355</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6627623</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Fasterna</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 2663-2019.xlsx
+++ b/artfynd/A 2663-2019.xlsx
@@ -1045,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112307572</v>
+        <v>112307970</v>
       </c>
       <c r="B5" t="n">
-        <v>89979</v>
+        <v>90806</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,25 +1057,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1209</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1088,10 +1088,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>683375</v>
+        <v>683369</v>
       </c>
       <c r="R5" t="n">
-        <v>6627671</v>
+        <v>6627485</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112307522</v>
+        <v>112307585</v>
       </c>
       <c r="B6" t="n">
-        <v>90812</v>
+        <v>5113</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1167,26 +1167,36 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>100526</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1194,10 +1204,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>683384</v>
+        <v>683344</v>
       </c>
       <c r="R6" t="n">
-        <v>6627716</v>
+        <v>6627679</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1230,6 +1240,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>gnagspår</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1257,10 +1272,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112307592</v>
+        <v>112307522</v>
       </c>
       <c r="B7" t="n">
-        <v>103755</v>
+        <v>90826</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1273,27 +1288,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221144</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1301,10 +1315,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>683347</v>
+        <v>683384</v>
       </c>
       <c r="R7" t="n">
-        <v>6627644</v>
+        <v>6627716</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1364,10 +1378,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112307990</v>
+        <v>112307568</v>
       </c>
       <c r="B8" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1397,8 +1411,16 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1408,10 +1430,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>683334</v>
+        <v>683342</v>
       </c>
       <c r="R8" t="n">
-        <v>6627502</v>
+        <v>6627694</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1471,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112307943</v>
+        <v>112307572</v>
       </c>
       <c r="B9" t="n">
-        <v>89559</v>
+        <v>89993</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1505,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5442</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1514,10 +1536,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>683401</v>
+        <v>683375</v>
       </c>
       <c r="R9" t="n">
-        <v>6627535</v>
+        <v>6627671</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1577,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112307970</v>
+        <v>112307555</v>
       </c>
       <c r="B10" t="n">
-        <v>90792</v>
+        <v>89331</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1589,25 +1611,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>3215</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1620,10 +1642,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>683369</v>
+        <v>683437</v>
       </c>
       <c r="R10" t="n">
-        <v>6627485</v>
+        <v>6627679</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1683,10 +1705,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112307555</v>
+        <v>112307943</v>
       </c>
       <c r="B11" t="n">
-        <v>89317</v>
+        <v>89573</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1695,25 +1717,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3215</v>
+        <v>5442</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1726,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>683437</v>
+        <v>683401</v>
       </c>
       <c r="R11" t="n">
-        <v>6627679</v>
+        <v>6627535</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1789,10 +1811,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112307576</v>
+        <v>112307542</v>
       </c>
       <c r="B12" t="n">
-        <v>89539</v>
+        <v>94301</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1805,26 +1827,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1832,10 +1855,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>683375</v>
+        <v>683437</v>
       </c>
       <c r="R12" t="n">
-        <v>6627671</v>
+        <v>6627679</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1895,10 +1918,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112307568</v>
+        <v>112307592</v>
       </c>
       <c r="B13" t="n">
-        <v>96720</v>
+        <v>103781</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1907,37 +1930,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1947,10 +1962,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>683342</v>
+        <v>683347</v>
       </c>
       <c r="R13" t="n">
-        <v>6627694</v>
+        <v>6627644</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2010,10 +2025,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112307580</v>
+        <v>112307976</v>
       </c>
       <c r="B14" t="n">
-        <v>5113</v>
+        <v>90826</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2026,28 +2041,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100526</v>
+        <v>4366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2055,10 +2068,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>683344</v>
+        <v>683370</v>
       </c>
       <c r="R14" t="n">
-        <v>6627679</v>
+        <v>6627485</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2118,10 +2131,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112307588</v>
+        <v>112307576</v>
       </c>
       <c r="B15" t="n">
-        <v>89936</v>
+        <v>89553</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2130,25 +2143,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5420</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2161,10 +2174,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>683341</v>
+        <v>683375</v>
       </c>
       <c r="R15" t="n">
-        <v>6627677</v>
+        <v>6627671</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2224,10 +2237,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112307503</v>
+        <v>112307600</v>
       </c>
       <c r="B16" t="n">
-        <v>90792</v>
+        <v>90806</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2267,10 +2280,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>683373</v>
+        <v>683355</v>
       </c>
       <c r="R16" t="n">
-        <v>6627724</v>
+        <v>6627623</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2330,10 +2343,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112307976</v>
+        <v>112307990</v>
       </c>
       <c r="B17" t="n">
-        <v>90812</v>
+        <v>96735</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2342,30 +2355,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2373,10 +2387,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>683370</v>
+        <v>683334</v>
       </c>
       <c r="R17" t="n">
-        <v>6627485</v>
+        <v>6627502</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2436,10 +2450,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112307952</v>
+        <v>112307609</v>
       </c>
       <c r="B18" t="n">
-        <v>89539</v>
+        <v>90822</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2448,25 +2462,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>2058</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2479,10 +2493,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>683399</v>
+        <v>683391</v>
       </c>
       <c r="R18" t="n">
-        <v>6627533</v>
+        <v>6627583</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2542,10 +2556,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112307534</v>
+        <v>112307503</v>
       </c>
       <c r="B19" t="n">
-        <v>90823</v>
+        <v>90806</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2558,21 +2572,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2585,10 +2599,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>683417</v>
+        <v>683373</v>
       </c>
       <c r="R19" t="n">
-        <v>6627694</v>
+        <v>6627724</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2651,7 +2665,7 @@
         <v>112307579</v>
       </c>
       <c r="B20" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2763,10 +2777,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112307542</v>
+        <v>112307534</v>
       </c>
       <c r="B21" t="n">
-        <v>94287</v>
+        <v>90837</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2779,27 +2793,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>5966</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2807,10 +2820,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>683437</v>
+        <v>683417</v>
       </c>
       <c r="R21" t="n">
-        <v>6627679</v>
+        <v>6627694</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2870,10 +2883,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112307609</v>
+        <v>112307588</v>
       </c>
       <c r="B22" t="n">
-        <v>90808</v>
+        <v>89950</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2882,25 +2895,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2058</v>
+        <v>5420</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2913,10 +2926,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>683391</v>
+        <v>683341</v>
       </c>
       <c r="R22" t="n">
-        <v>6627583</v>
+        <v>6627677</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -2976,10 +2989,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112307600</v>
+        <v>112307952</v>
       </c>
       <c r="B23" t="n">
-        <v>90792</v>
+        <v>89553</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2992,21 +3005,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4361</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3019,10 +3032,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>683355</v>
+        <v>683399</v>
       </c>
       <c r="R23" t="n">
-        <v>6627623</v>
+        <v>6627533</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>

--- a/artfynd/A 2663-2019.xlsx
+++ b/artfynd/A 2663-2019.xlsx
@@ -1045,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112307970</v>
+        <v>112307522</v>
       </c>
       <c r="B5" t="n">
-        <v>90806</v>
+        <v>90826</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,25 +1057,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1088,10 +1088,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>683369</v>
+        <v>683384</v>
       </c>
       <c r="R5" t="n">
-        <v>6627485</v>
+        <v>6627716</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112307585</v>
+        <v>112307970</v>
       </c>
       <c r="B6" t="n">
-        <v>5113</v>
+        <v>90806</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1163,40 +1163,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100526</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>cm²</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1204,10 +1194,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>683344</v>
+        <v>683369</v>
       </c>
       <c r="R6" t="n">
-        <v>6627679</v>
+        <v>6627485</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1240,11 +1230,6 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>gnagspår</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1272,10 +1257,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112307522</v>
+        <v>112307585</v>
       </c>
       <c r="B7" t="n">
-        <v>90826</v>
+        <v>5113</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1288,26 +1273,36 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>100526</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1315,10 +1310,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>683384</v>
+        <v>683344</v>
       </c>
       <c r="R7" t="n">
-        <v>6627716</v>
+        <v>6627679</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1351,6 +1346,11 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>gnagspår</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1378,10 +1378,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112307568</v>
+        <v>112307600</v>
       </c>
       <c r="B8" t="n">
-        <v>96735</v>
+        <v>90806</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1390,39 +1390,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1430,10 +1421,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>683342</v>
+        <v>683355</v>
       </c>
       <c r="R8" t="n">
-        <v>6627694</v>
+        <v>6627623</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1493,10 +1484,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112307572</v>
+        <v>112307555</v>
       </c>
       <c r="B9" t="n">
-        <v>89993</v>
+        <v>89331</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1505,25 +1496,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>3215</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1536,10 +1527,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>683375</v>
+        <v>683437</v>
       </c>
       <c r="R9" t="n">
-        <v>6627671</v>
+        <v>6627679</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1599,10 +1590,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112307555</v>
+        <v>112307609</v>
       </c>
       <c r="B10" t="n">
-        <v>89331</v>
+        <v>90822</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1611,25 +1602,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3215</v>
+        <v>2058</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1642,10 +1633,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>683437</v>
+        <v>683391</v>
       </c>
       <c r="R10" t="n">
-        <v>6627679</v>
+        <v>6627583</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1705,10 +1696,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112307943</v>
+        <v>112307990</v>
       </c>
       <c r="B11" t="n">
-        <v>89573</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1717,30 +1708,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1748,10 +1740,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>683401</v>
+        <v>683334</v>
       </c>
       <c r="R11" t="n">
-        <v>6627535</v>
+        <v>6627502</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1811,10 +1803,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112307542</v>
+        <v>112307952</v>
       </c>
       <c r="B12" t="n">
-        <v>94301</v>
+        <v>89553</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1827,27 +1819,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1855,10 +1846,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>683437</v>
+        <v>683399</v>
       </c>
       <c r="R12" t="n">
-        <v>6627679</v>
+        <v>6627533</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2025,10 +2016,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112307976</v>
+        <v>112307579</v>
       </c>
       <c r="B14" t="n">
-        <v>90826</v>
+        <v>96735</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2037,30 +2028,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>683370</v>
+        <v>683344</v>
       </c>
       <c r="R14" t="n">
-        <v>6627485</v>
+        <v>6627679</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2237,10 +2237,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112307600</v>
+        <v>112307588</v>
       </c>
       <c r="B16" t="n">
-        <v>90806</v>
+        <v>89950</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2249,25 +2249,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4361</v>
+        <v>5420</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>683355</v>
+        <v>683341</v>
       </c>
       <c r="R16" t="n">
-        <v>6627623</v>
+        <v>6627677</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112307990</v>
+        <v>112307568</v>
       </c>
       <c r="B17" t="n">
         <v>96735</v>
@@ -2376,8 +2376,16 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -2387,10 +2395,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>683334</v>
+        <v>683342</v>
       </c>
       <c r="R17" t="n">
-        <v>6627502</v>
+        <v>6627694</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2450,10 +2458,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112307609</v>
+        <v>112307572</v>
       </c>
       <c r="B18" t="n">
-        <v>90822</v>
+        <v>89993</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2466,21 +2474,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2058</v>
+        <v>1209</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2493,10 +2501,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>683391</v>
+        <v>683375</v>
       </c>
       <c r="R18" t="n">
-        <v>6627583</v>
+        <v>6627671</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2662,10 +2670,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112307579</v>
+        <v>112307976</v>
       </c>
       <c r="B20" t="n">
-        <v>96735</v>
+        <v>90826</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2674,39 +2682,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2714,10 +2713,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>683344</v>
+        <v>683370</v>
       </c>
       <c r="R20" t="n">
-        <v>6627679</v>
+        <v>6627485</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2777,10 +2776,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112307534</v>
+        <v>112307542</v>
       </c>
       <c r="B21" t="n">
-        <v>90837</v>
+        <v>94301</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2793,26 +2792,27 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5966</v>
+        <v>53</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2820,10 +2820,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>683417</v>
+        <v>683437</v>
       </c>
       <c r="R21" t="n">
-        <v>6627694</v>
+        <v>6627679</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112307588</v>
+        <v>112307534</v>
       </c>
       <c r="B22" t="n">
-        <v>89950</v>
+        <v>90837</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2895,25 +2895,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5420</v>
+        <v>5966</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>683341</v>
+        <v>683417</v>
       </c>
       <c r="R22" t="n">
-        <v>6627677</v>
+        <v>6627694</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112307952</v>
+        <v>112307943</v>
       </c>
       <c r="B23" t="n">
-        <v>89553</v>
+        <v>89573</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3005,21 +3005,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3032,10 +3032,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>683399</v>
+        <v>683401</v>
       </c>
       <c r="R23" t="n">
-        <v>6627533</v>
+        <v>6627535</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>

--- a/artfynd/A 2663-2019.xlsx
+++ b/artfynd/A 2663-2019.xlsx
@@ -1045,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112307522</v>
+        <v>112307970</v>
       </c>
       <c r="B5" t="n">
-        <v>90826</v>
+        <v>90806</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,25 +1057,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1088,10 +1088,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>683384</v>
+        <v>683369</v>
       </c>
       <c r="R5" t="n">
-        <v>6627716</v>
+        <v>6627485</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112307970</v>
+        <v>112307522</v>
       </c>
       <c r="B6" t="n">
-        <v>90806</v>
+        <v>90826</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1163,25 +1163,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1194,10 +1194,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>683369</v>
+        <v>683384</v>
       </c>
       <c r="R6" t="n">
-        <v>6627485</v>
+        <v>6627716</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>

--- a/artfynd/A 2663-2019.xlsx
+++ b/artfynd/A 2663-2019.xlsx
@@ -1045,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112307970</v>
+        <v>112307579</v>
       </c>
       <c r="B5" t="n">
-        <v>90806</v>
+        <v>96735</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,30 +1057,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1088,10 +1097,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>683369</v>
+        <v>683344</v>
       </c>
       <c r="R5" t="n">
-        <v>6627485</v>
+        <v>6627679</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1151,10 +1160,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112307522</v>
+        <v>112307588</v>
       </c>
       <c r="B6" t="n">
-        <v>90826</v>
+        <v>89950</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1167,21 +1176,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>5420</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1194,10 +1203,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>683384</v>
+        <v>683341</v>
       </c>
       <c r="R6" t="n">
-        <v>6627716</v>
+        <v>6627677</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1257,10 +1266,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112307585</v>
+        <v>112307555</v>
       </c>
       <c r="B7" t="n">
-        <v>5113</v>
+        <v>89331</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1273,36 +1282,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100526</v>
+        <v>3215</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>cm²</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1310,7 +1309,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>683344</v>
+        <v>683437</v>
       </c>
       <c r="R7" t="n">
         <v>6627679</v>
@@ -1346,11 +1345,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>gnagspår</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1378,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112307600</v>
+        <v>112307976</v>
       </c>
       <c r="B8" t="n">
-        <v>90806</v>
+        <v>90826</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1390,25 +1384,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1421,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>683355</v>
+        <v>683370</v>
       </c>
       <c r="R8" t="n">
-        <v>6627623</v>
+        <v>6627485</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1484,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112307555</v>
+        <v>112307600</v>
       </c>
       <c r="B9" t="n">
-        <v>89331</v>
+        <v>90806</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,25 +1490,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3215</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1527,10 +1521,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>683437</v>
+        <v>683355</v>
       </c>
       <c r="R9" t="n">
-        <v>6627679</v>
+        <v>6627623</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1590,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112307609</v>
+        <v>112307576</v>
       </c>
       <c r="B10" t="n">
-        <v>90822</v>
+        <v>89553</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1602,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2058</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1633,10 +1627,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>683391</v>
+        <v>683375</v>
       </c>
       <c r="R10" t="n">
-        <v>6627583</v>
+        <v>6627671</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1696,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112307990</v>
+        <v>112307952</v>
       </c>
       <c r="B11" t="n">
-        <v>96735</v>
+        <v>89553</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1708,31 +1702,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1740,10 +1733,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>683334</v>
+        <v>683399</v>
       </c>
       <c r="R11" t="n">
-        <v>6627502</v>
+        <v>6627533</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1803,10 +1796,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112307952</v>
+        <v>112307580</v>
       </c>
       <c r="B12" t="n">
-        <v>89553</v>
+        <v>5113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1815,30 +1808,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1846,10 +1841,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>683399</v>
+        <v>683344</v>
       </c>
       <c r="R12" t="n">
-        <v>6627533</v>
+        <v>6627679</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1909,10 +1904,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112307592</v>
+        <v>112307943</v>
       </c>
       <c r="B13" t="n">
-        <v>103781</v>
+        <v>89573</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1921,31 +1916,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1953,10 +1947,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>683347</v>
+        <v>683401</v>
       </c>
       <c r="R13" t="n">
-        <v>6627644</v>
+        <v>6627535</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2016,7 +2010,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112307579</v>
+        <v>112307990</v>
       </c>
       <c r="B14" t="n">
         <v>96735</v>
@@ -2049,16 +2043,8 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -2068,10 +2054,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>683344</v>
+        <v>683334</v>
       </c>
       <c r="R14" t="n">
-        <v>6627679</v>
+        <v>6627502</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2131,10 +2117,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112307576</v>
+        <v>112307609</v>
       </c>
       <c r="B15" t="n">
-        <v>89553</v>
+        <v>90822</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2143,25 +2129,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>2058</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2174,10 +2160,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>683375</v>
+        <v>683391</v>
       </c>
       <c r="R15" t="n">
-        <v>6627671</v>
+        <v>6627583</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2237,10 +2223,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112307588</v>
+        <v>112307568</v>
       </c>
       <c r="B16" t="n">
-        <v>89950</v>
+        <v>96735</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2249,30 +2235,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5420</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2280,10 +2275,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>683341</v>
+        <v>683342</v>
       </c>
       <c r="R16" t="n">
-        <v>6627677</v>
+        <v>6627694</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2343,10 +2338,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112307568</v>
+        <v>112307572</v>
       </c>
       <c r="B17" t="n">
-        <v>96735</v>
+        <v>89993</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2359,35 +2354,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2395,10 +2381,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>683342</v>
+        <v>683375</v>
       </c>
       <c r="R17" t="n">
-        <v>6627694</v>
+        <v>6627671</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2458,10 +2444,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112307572</v>
+        <v>112307970</v>
       </c>
       <c r="B18" t="n">
-        <v>89993</v>
+        <v>90806</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2470,25 +2456,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1209</v>
+        <v>4361</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2501,10 +2487,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>683375</v>
+        <v>683369</v>
       </c>
       <c r="R18" t="n">
-        <v>6627671</v>
+        <v>6627485</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2564,10 +2550,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112307503</v>
+        <v>112307534</v>
       </c>
       <c r="B19" t="n">
-        <v>90806</v>
+        <v>90837</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2580,21 +2566,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2607,10 +2593,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>683373</v>
+        <v>683417</v>
       </c>
       <c r="R19" t="n">
-        <v>6627724</v>
+        <v>6627694</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2670,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112307976</v>
+        <v>112307592</v>
       </c>
       <c r="B20" t="n">
-        <v>90826</v>
+        <v>103781</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2686,26 +2672,27 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>221144</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2713,10 +2700,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>683370</v>
+        <v>683347</v>
       </c>
       <c r="R20" t="n">
-        <v>6627485</v>
+        <v>6627644</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2883,10 +2870,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112307534</v>
+        <v>112307503</v>
       </c>
       <c r="B22" t="n">
-        <v>90837</v>
+        <v>90806</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2899,21 +2886,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2926,10 +2913,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>683417</v>
+        <v>683373</v>
       </c>
       <c r="R22" t="n">
-        <v>6627694</v>
+        <v>6627724</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -2989,10 +2976,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112307943</v>
+        <v>112307522</v>
       </c>
       <c r="B23" t="n">
-        <v>89573</v>
+        <v>90826</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3001,25 +2988,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5442</v>
+        <v>4366</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3032,10 +3019,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>683401</v>
+        <v>683384</v>
       </c>
       <c r="R23" t="n">
-        <v>6627535</v>
+        <v>6627716</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
